--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nampt-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nampt-Insr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.14139</v>
+        <v>13.396667</v>
       </c>
       <c r="H2">
-        <v>22.28278</v>
+        <v>26.793334</v>
       </c>
       <c r="I2">
-        <v>0.07513058801557905</v>
+        <v>0.07632270856467389</v>
       </c>
       <c r="J2">
-        <v>0.05268377083621979</v>
+        <v>0.05355882169742308</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N2">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O2">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P2">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q2">
-        <v>226.22943348785</v>
+        <v>212.5822840677655</v>
       </c>
       <c r="R2">
-        <v>904.9177339514001</v>
+        <v>850.329136271062</v>
       </c>
       <c r="S2">
-        <v>0.02441441817184726</v>
+        <v>0.02090615033405237</v>
       </c>
       <c r="T2">
-        <v>0.01358319282174622</v>
+        <v>0.01134845975078498</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.14139</v>
+        <v>13.396667</v>
       </c>
       <c r="H3">
-        <v>22.28278</v>
+        <v>26.793334</v>
       </c>
       <c r="I3">
-        <v>0.07513058801557905</v>
+        <v>0.07632270856467389</v>
       </c>
       <c r="J3">
-        <v>0.05268377083621979</v>
+        <v>0.05355882169742308</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.766468</v>
       </c>
       <c r="O3">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P3">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q3">
-        <v>39.98447297017334</v>
+        <v>48.07826218738533</v>
       </c>
       <c r="R3">
-        <v>239.90683782104</v>
+        <v>288.469573124312</v>
       </c>
       <c r="S3">
-        <v>0.004315077964986212</v>
+        <v>0.00472819916060858</v>
       </c>
       <c r="T3">
-        <v>0.00360110175225453</v>
+        <v>0.003849903761128817</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.14139</v>
+        <v>13.396667</v>
       </c>
       <c r="H4">
-        <v>22.28278</v>
+        <v>26.793334</v>
       </c>
       <c r="I4">
-        <v>0.07513058801557905</v>
+        <v>0.07632270856467389</v>
       </c>
       <c r="J4">
-        <v>0.05268377083621979</v>
+        <v>0.05355882169742308</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N4">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O4">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P4">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q4">
-        <v>92.55005606652</v>
+        <v>103.2812916476033</v>
       </c>
       <c r="R4">
-        <v>555.3003363991201</v>
+        <v>619.68774988562</v>
       </c>
       <c r="S4">
-        <v>0.009987894748263521</v>
+        <v>0.01015707503260998</v>
       </c>
       <c r="T4">
-        <v>0.00833528978413731</v>
+        <v>0.008270328732320066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.14139</v>
+        <v>13.396667</v>
       </c>
       <c r="H5">
-        <v>22.28278</v>
+        <v>26.793334</v>
       </c>
       <c r="I5">
-        <v>0.07513058801557905</v>
+        <v>0.07632270856467389</v>
       </c>
       <c r="J5">
-        <v>0.05268377083621979</v>
+        <v>0.05355882169742308</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N5">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O5">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P5">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q5">
-        <v>107.393891513675</v>
+        <v>109.103822508034</v>
       </c>
       <c r="R5">
-        <v>429.5755660547001</v>
+        <v>436.4152900321361</v>
       </c>
       <c r="S5">
-        <v>0.01158982425979366</v>
+        <v>0.01072968486238309</v>
       </c>
       <c r="T5">
-        <v>0.006448108514519563</v>
+        <v>0.005824381574499032</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.14139</v>
+        <v>13.396667</v>
       </c>
       <c r="H6">
-        <v>22.28278</v>
+        <v>26.793334</v>
       </c>
       <c r="I6">
-        <v>0.07513058801557905</v>
+        <v>0.07632270856467389</v>
       </c>
       <c r="J6">
-        <v>0.05268377083621979</v>
+        <v>0.05355882169742308</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N6">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O6">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P6">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q6">
-        <v>110.6935905675167</v>
+        <v>226.7641140911907</v>
       </c>
       <c r="R6">
-        <v>664.1615434051</v>
+        <v>1360.584684547144</v>
       </c>
       <c r="S6">
-        <v>0.01194592395601672</v>
+        <v>0.02230084543661883</v>
       </c>
       <c r="T6">
-        <v>0.009969341930638476</v>
+        <v>0.01815831055469763</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.14139</v>
+        <v>13.396667</v>
       </c>
       <c r="H7">
-        <v>22.28278</v>
+        <v>26.793334</v>
       </c>
       <c r="I7">
-        <v>0.07513058801557905</v>
+        <v>0.07632270856467389</v>
       </c>
       <c r="J7">
-        <v>0.05268377083621979</v>
+        <v>0.05355882169742308</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N7">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O7">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P7">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q7">
-        <v>119.3253081940833</v>
+        <v>76.27073069219834</v>
       </c>
       <c r="R7">
-        <v>715.9518491645</v>
+        <v>457.6243841531901</v>
       </c>
       <c r="S7">
-        <v>0.01287744891467168</v>
+        <v>0.007500753738401027</v>
       </c>
       <c r="T7">
-        <v>0.0107467360329237</v>
+        <v>0.006107437323992562</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>34.659887</v>
       </c>
       <c r="I8">
-        <v>0.07790822302733394</v>
+        <v>0.06582076109889942</v>
       </c>
       <c r="J8">
-        <v>0.08194729490293731</v>
+        <v>0.06928375199166449</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N8">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O8">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P8">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q8">
-        <v>234.5933077998017</v>
+        <v>183.3311211908318</v>
       </c>
       <c r="R8">
-        <v>1407.55984679881</v>
+        <v>1099.986727144991</v>
       </c>
       <c r="S8">
-        <v>0.02531703779052622</v>
+        <v>0.01802947972515023</v>
       </c>
       <c r="T8">
-        <v>0.02112806069534121</v>
+        <v>0.01468038029855693</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>34.659887</v>
       </c>
       <c r="I9">
-        <v>0.07790822302733394</v>
+        <v>0.06582076109889942</v>
       </c>
       <c r="J9">
-        <v>0.08194729490293731</v>
+        <v>0.06928375199166449</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>10.766468</v>
       </c>
       <c r="O9">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P9">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q9">
-        <v>41.46272936323512</v>
+        <v>41.46272936323511</v>
       </c>
       <c r="R9">
-        <v>373.1645642691161</v>
+        <v>373.1645642691159</v>
       </c>
       <c r="S9">
-        <v>0.00447460968103657</v>
+        <v>0.004077602501681655</v>
       </c>
       <c r="T9">
-        <v>0.005601355836598665</v>
+        <v>0.004980239835833784</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>34.659887</v>
       </c>
       <c r="I10">
-        <v>0.07790822302733394</v>
+        <v>0.06582076109889942</v>
       </c>
       <c r="J10">
-        <v>0.08194729490293731</v>
+        <v>0.06928375199166449</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N10">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O10">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P10">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q10">
-        <v>95.97170206797202</v>
+        <v>89.06986336526776</v>
       </c>
       <c r="R10">
-        <v>863.7453186117481</v>
+        <v>801.6287702874099</v>
       </c>
       <c r="S10">
-        <v>0.01035715481768753</v>
+        <v>0.008759469124690571</v>
       </c>
       <c r="T10">
-        <v>0.01296517768565922</v>
+        <v>0.01069850655073634</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>34.659887</v>
       </c>
       <c r="I11">
-        <v>0.07790822302733394</v>
+        <v>0.06582076109889942</v>
       </c>
       <c r="J11">
-        <v>0.08194729490293731</v>
+        <v>0.06928375199166449</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N11">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O11">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P11">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q11">
-        <v>111.3643254074592</v>
+        <v>94.09121834549133</v>
       </c>
       <c r="R11">
-        <v>668.1859524447551</v>
+        <v>564.547310072948</v>
       </c>
       <c r="S11">
-        <v>0.01201830888229407</v>
+        <v>0.009253288271274451</v>
       </c>
       <c r="T11">
-        <v>0.01002974998976725</v>
+        <v>0.007534426556135883</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>34.659887</v>
       </c>
       <c r="I12">
-        <v>0.07790822302733394</v>
+        <v>0.06582076109889942</v>
       </c>
       <c r="J12">
-        <v>0.08194729490293731</v>
+        <v>0.06928375199166449</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N12">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O12">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P12">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q12">
-        <v>114.7860168463239</v>
+        <v>195.5615420376769</v>
       </c>
       <c r="R12">
-        <v>1033.074151616915</v>
+        <v>1760.053878339092</v>
       </c>
       <c r="S12">
-        <v>0.01238757385527098</v>
+        <v>0.0192322658274548</v>
       </c>
       <c r="T12">
-        <v>0.01550687413241487</v>
+        <v>0.0234896109583349</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>34.659887</v>
       </c>
       <c r="I13">
-        <v>0.07790822302733394</v>
+        <v>0.06582076109889942</v>
       </c>
       <c r="J13">
-        <v>0.08194729490293731</v>
+        <v>0.06928375199166449</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N13">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O13">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P13">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q13">
-        <v>123.7368556421028</v>
+        <v>65.77593534269944</v>
       </c>
       <c r="R13">
-        <v>1113.631700778925</v>
+        <v>591.983418084295</v>
       </c>
       <c r="S13">
-        <v>0.01335353800051858</v>
+        <v>0.00646865564864771</v>
       </c>
       <c r="T13">
-        <v>0.0167160765631561</v>
+        <v>0.007900587792066659</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>44.40764766666666</v>
+        <v>47.59428533333332</v>
       </c>
       <c r="H14">
-        <v>133.222943</v>
+        <v>142.782856</v>
       </c>
       <c r="I14">
-        <v>0.2994574897373957</v>
+        <v>0.2711513818205627</v>
       </c>
       <c r="J14">
-        <v>0.3149825559978948</v>
+        <v>0.2854173178281148</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N14">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O14">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P14">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q14">
-        <v>901.7112742806816</v>
+        <v>755.2402313749345</v>
       </c>
       <c r="R14">
-        <v>5410.267645684089</v>
+        <v>4531.441388249607</v>
       </c>
       <c r="S14">
-        <v>0.09731163527729098</v>
+        <v>0.0742731967750225</v>
       </c>
       <c r="T14">
-        <v>0.08121037514392303</v>
+        <v>0.06047644143196691</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>44.40764766666666</v>
+        <v>47.59428533333332</v>
       </c>
       <c r="H15">
-        <v>133.222943</v>
+        <v>142.782856</v>
       </c>
       <c r="I15">
-        <v>0.2994574897373957</v>
+        <v>0.2711513818205627</v>
       </c>
       <c r="J15">
-        <v>0.3149825559978948</v>
+        <v>0.2854173178281148</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>10.766468</v>
       </c>
       <c r="O15">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P15">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q15">
-        <v>159.3711725194804</v>
+        <v>170.8074500080675</v>
       </c>
       <c r="R15">
-        <v>1434.340552675324</v>
+        <v>1537.267050072608</v>
       </c>
       <c r="S15">
-        <v>0.01719915216353657</v>
+        <v>0.01679785426948598</v>
       </c>
       <c r="T15">
-        <v>0.02153005026651994</v>
+        <v>0.02051630656860823</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>44.40764766666666</v>
+        <v>47.59428533333332</v>
       </c>
       <c r="H16">
-        <v>133.222943</v>
+        <v>142.782856</v>
       </c>
       <c r="I16">
-        <v>0.2994574897373957</v>
+        <v>0.2711513818205627</v>
       </c>
       <c r="J16">
-        <v>0.3149825559978948</v>
+        <v>0.2854173178281148</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N16">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O16">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P16">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q16">
-        <v>368.888467357508</v>
+        <v>366.9270322440088</v>
       </c>
       <c r="R16">
-        <v>3319.996206217571</v>
+        <v>3302.343290196079</v>
       </c>
       <c r="S16">
-        <v>0.03981001570833053</v>
+        <v>0.03608499989244453</v>
       </c>
       <c r="T16">
-        <v>0.04983452853731028</v>
+        <v>0.04407294577298661</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>44.40764766666666</v>
+        <v>47.59428533333332</v>
       </c>
       <c r="H17">
-        <v>133.222943</v>
+        <v>142.782856</v>
       </c>
       <c r="I17">
-        <v>0.2994574897373957</v>
+        <v>0.2711513818205627</v>
       </c>
       <c r="J17">
-        <v>0.3149825559978948</v>
+        <v>0.2854173178281148</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N17">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O17">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P17">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q17">
-        <v>428.0534202546991</v>
+        <v>387.6127143717706</v>
       </c>
       <c r="R17">
-        <v>2568.320521528195</v>
+        <v>2325.676286230624</v>
       </c>
       <c r="S17">
-        <v>0.04619502882921274</v>
+        <v>0.03811930854719373</v>
       </c>
       <c r="T17">
-        <v>0.03855156282508979</v>
+        <v>0.03103838572835872</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>44.40764766666666</v>
+        <v>47.59428533333332</v>
       </c>
       <c r="H18">
-        <v>133.222943</v>
+        <v>142.782856</v>
       </c>
       <c r="I18">
-        <v>0.2994574897373957</v>
+        <v>0.2711513818205627</v>
       </c>
       <c r="J18">
-        <v>0.3149825559978948</v>
+        <v>0.2854173178281148</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N18">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O18">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P18">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q18">
-        <v>441.2054482322704</v>
+        <v>805.6239622449883</v>
       </c>
       <c r="R18">
-        <v>3970.849034090434</v>
+        <v>7250.615660204895</v>
       </c>
       <c r="S18">
-        <v>0.04761438044010517</v>
+        <v>0.07922812449432394</v>
       </c>
       <c r="T18">
-        <v>0.0596041010938922</v>
+        <v>0.09676643605214159</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>44.40764766666666</v>
+        <v>47.59428533333332</v>
       </c>
       <c r="H19">
-        <v>133.222943</v>
+        <v>142.782856</v>
       </c>
       <c r="I19">
-        <v>0.2994574897373957</v>
+        <v>0.2711513818205627</v>
       </c>
       <c r="J19">
-        <v>0.3149825559978948</v>
+        <v>0.2854173178281148</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N19">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O19">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P19">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q19">
-        <v>475.609977211036</v>
+        <v>270.9667202406622</v>
       </c>
       <c r="R19">
-        <v>4280.489794899324</v>
+        <v>2438.70048216596</v>
       </c>
       <c r="S19">
-        <v>0.0513272773189197</v>
+        <v>0.026647897842092</v>
       </c>
       <c r="T19">
-        <v>0.06425193813115955</v>
+        <v>0.03254680227405277</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.786195</v>
+        <v>12.9232305</v>
       </c>
       <c r="H20">
-        <v>21.57239</v>
+        <v>25.846461</v>
       </c>
       <c r="I20">
-        <v>0.07273537438333084</v>
+        <v>0.07362547379625131</v>
       </c>
       <c r="J20">
-        <v>0.0510041768194794</v>
+        <v>0.05166605978219804</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N20">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O20">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P20">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q20">
-        <v>219.017087126425</v>
+        <v>205.0696533118432</v>
       </c>
       <c r="R20">
-        <v>876.0683485057</v>
+        <v>820.278613247373</v>
       </c>
       <c r="S20">
-        <v>0.02363607011450887</v>
+        <v>0.02016732965256289</v>
       </c>
       <c r="T20">
-        <v>0.01315015150694437</v>
+        <v>0.01094740663325936</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.786195</v>
+        <v>12.9232305</v>
       </c>
       <c r="H21">
-        <v>21.57239</v>
+        <v>25.846461</v>
       </c>
       <c r="I21">
-        <v>0.07273537438333084</v>
+        <v>0.07362547379625131</v>
       </c>
       <c r="J21">
-        <v>0.0510041768194794</v>
+        <v>0.05166605978219804</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>10.766468</v>
       </c>
       <c r="O21">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P21">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q21">
-        <v>38.70974110308666</v>
+        <v>46.379182544958</v>
       </c>
       <c r="R21">
-        <v>232.25844661852</v>
+        <v>278.275095269748</v>
       </c>
       <c r="S21">
-        <v>0.004177510379812972</v>
+        <v>0.004561105206425687</v>
       </c>
       <c r="T21">
-        <v>0.003486296208521472</v>
+        <v>0.003713848654137976</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.786195</v>
+        <v>12.9232305</v>
       </c>
       <c r="H22">
-        <v>21.57239</v>
+        <v>25.846461</v>
       </c>
       <c r="I22">
-        <v>0.07273537438333084</v>
+        <v>0.07362547379625131</v>
       </c>
       <c r="J22">
-        <v>0.0510041768194794</v>
+        <v>0.05166605978219804</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N22">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O22">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P22">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q22">
-        <v>89.59949808725999</v>
+        <v>99.63134399770499</v>
       </c>
       <c r="R22">
-        <v>537.59698852356</v>
+        <v>597.7880639862299</v>
       </c>
       <c r="S22">
-        <v>0.009669473952015522</v>
+        <v>0.00979812529879363</v>
       </c>
       <c r="T22">
-        <v>0.008069555144664436</v>
+        <v>0.007978056371674013</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.786195</v>
+        <v>12.9232305</v>
       </c>
       <c r="H23">
-        <v>21.57239</v>
+        <v>25.846461</v>
       </c>
       <c r="I23">
-        <v>0.07273537438333084</v>
+        <v>0.07362547379625131</v>
       </c>
       <c r="J23">
-        <v>0.0510041768194794</v>
+        <v>0.05166605978219804</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N23">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O23">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P23">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q23">
-        <v>103.9701020855875</v>
+        <v>105.248107361511</v>
       </c>
       <c r="R23">
-        <v>415.88040834235</v>
+        <v>420.992429446044</v>
       </c>
       <c r="S23">
-        <v>0.01122033287425223</v>
+        <v>0.01035049917034867</v>
       </c>
       <c r="T23">
-        <v>0.006242538482071655</v>
+        <v>0.005618548673875665</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.786195</v>
+        <v>12.9232305</v>
       </c>
       <c r="H24">
-        <v>21.57239</v>
+        <v>25.846461</v>
       </c>
       <c r="I24">
-        <v>0.07273537438333084</v>
+        <v>0.07362547379625131</v>
       </c>
       <c r="J24">
-        <v>0.0510041768194794</v>
+        <v>0.05166605978219804</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N24">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O24">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P24">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q24">
-        <v>107.1646045162583</v>
+        <v>218.750299274346</v>
       </c>
       <c r="R24">
-        <v>642.9876270975499</v>
+        <v>1312.501795646076</v>
       </c>
       <c r="S24">
-        <v>0.01156507987286755</v>
+        <v>0.02151273640841399</v>
       </c>
       <c r="T24">
-        <v>0.0096515126106835</v>
+        <v>0.01751659817990104</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.786195</v>
+        <v>12.9232305</v>
       </c>
       <c r="H25">
-        <v>21.57239</v>
+        <v>25.846461</v>
       </c>
       <c r="I25">
-        <v>0.07273537438333084</v>
+        <v>0.07362547379625131</v>
       </c>
       <c r="J25">
-        <v>0.0510041768194794</v>
+        <v>0.05166605978219804</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N25">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O25">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P25">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q25">
-        <v>115.5211371845416</v>
+        <v>73.5753328151475</v>
       </c>
       <c r="R25">
-        <v>693.1268231072499</v>
+        <v>441.451996890885</v>
       </c>
       <c r="S25">
-        <v>0.01246690718987371</v>
+        <v>0.00723567805970643</v>
       </c>
       <c r="T25">
-        <v>0.01040412286659397</v>
+        <v>0.005891601269349984</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.3246</v>
+        <v>46.35736866666667</v>
       </c>
       <c r="H26">
-        <v>33.9738</v>
+        <v>139.072106</v>
       </c>
       <c r="I26">
-        <v>0.07636604203256742</v>
+        <v>0.264104492451081</v>
       </c>
       <c r="J26">
-        <v>0.08032516111704031</v>
+        <v>0.2779996744092812</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N26">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O26">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P26">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q26">
-        <v>229.949570249</v>
+        <v>735.6124709624764</v>
       </c>
       <c r="R26">
-        <v>1379.697421494</v>
+        <v>4413.674825774859</v>
       </c>
       <c r="S26">
-        <v>0.02481589101798801</v>
+        <v>0.07234292816537297</v>
       </c>
       <c r="T26">
-        <v>0.02070983406412672</v>
+        <v>0.05890473344593482</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.3246</v>
+        <v>46.35736866666667</v>
       </c>
       <c r="H27">
-        <v>33.9738</v>
+        <v>139.072106</v>
       </c>
       <c r="I27">
-        <v>0.07636604203256742</v>
+        <v>0.264104492451081</v>
       </c>
       <c r="J27">
-        <v>0.08032516111704031</v>
+        <v>0.2779996744092812</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>10.766468</v>
       </c>
       <c r="O27">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P27">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q27">
-        <v>40.64198117093333</v>
+        <v>166.3683754379565</v>
       </c>
       <c r="R27">
-        <v>365.7778305383999</v>
+        <v>1497.315378941608</v>
       </c>
       <c r="S27">
-        <v>0.004386035487697931</v>
+        <v>0.01636129879303232</v>
       </c>
       <c r="T27">
-        <v>0.005490477880710797</v>
+        <v>0.01998311311154877</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.3246</v>
+        <v>46.35736866666667</v>
       </c>
       <c r="H28">
-        <v>33.9738</v>
+        <v>139.072106</v>
       </c>
       <c r="I28">
-        <v>0.07636604203256742</v>
+        <v>0.264104492451081</v>
       </c>
       <c r="J28">
-        <v>0.08032516111704031</v>
+        <v>0.2779996744092812</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N28">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O28">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P28">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q28">
-        <v>94.07195735279998</v>
+        <v>357.3910520637311</v>
       </c>
       <c r="R28">
-        <v>846.6476161751998</v>
+        <v>3216.51946857358</v>
       </c>
       <c r="S28">
-        <v>0.01015213657058814</v>
+        <v>0.03514719533311503</v>
       </c>
       <c r="T28">
-        <v>0.01270853403697043</v>
+        <v>0.04292754437040429</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.3246</v>
+        <v>46.35736866666667</v>
       </c>
       <c r="H29">
-        <v>33.9738</v>
+        <v>139.072106</v>
       </c>
       <c r="I29">
-        <v>0.07636604203256742</v>
+        <v>0.264104492451081</v>
       </c>
       <c r="J29">
-        <v>0.08032516111704031</v>
+        <v>0.2779996744092812</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N29">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O29">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P29">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q29">
-        <v>109.1598861395</v>
+        <v>377.5391388729374</v>
       </c>
       <c r="R29">
-        <v>654.959316837</v>
+        <v>2265.234833237625</v>
       </c>
       <c r="S29">
-        <v>0.01178040835232043</v>
+        <v>0.03712863481958951</v>
       </c>
       <c r="T29">
-        <v>0.009831212669630301</v>
+        <v>0.03023173643538263</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.3246</v>
+        <v>46.35736866666667</v>
       </c>
       <c r="H30">
-        <v>33.9738</v>
+        <v>139.072106</v>
       </c>
       <c r="I30">
-        <v>0.07636604203256742</v>
+        <v>0.264104492451081</v>
       </c>
       <c r="J30">
-        <v>0.08032516111704031</v>
+        <v>0.2779996744092812</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N30">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O30">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P30">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q30">
-        <v>112.5138457356666</v>
+        <v>784.6867909230997</v>
       </c>
       <c r="R30">
-        <v>1012.624611621</v>
+        <v>7062.181118307897</v>
       </c>
       <c r="S30">
-        <v>0.01214236378336159</v>
+        <v>0.07716908343572998</v>
       </c>
       <c r="T30">
-        <v>0.01519991800319015</v>
+        <v>0.09425159594710489</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>11.3246</v>
+        <v>46.35736866666667</v>
       </c>
       <c r="H31">
-        <v>33.9738</v>
+        <v>139.072106</v>
       </c>
       <c r="I31">
-        <v>0.07636604203256742</v>
+        <v>0.264104492451081</v>
       </c>
       <c r="J31">
-        <v>0.08032516111704031</v>
+        <v>0.2779996744092812</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N31">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O31">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P31">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q31">
-        <v>121.2875040883333</v>
+        <v>263.9246299974678</v>
       </c>
       <c r="R31">
-        <v>1091.587536795</v>
+        <v>2375.321669977211</v>
       </c>
       <c r="S31">
-        <v>0.01308920682061133</v>
+        <v>0.02595535190424116</v>
       </c>
       <c r="T31">
-        <v>0.01638518446241191</v>
+        <v>0.0317009510989058</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>59.08053333333334</v>
+        <v>43.701772</v>
       </c>
       <c r="H32">
-        <v>177.2416</v>
+        <v>131.105316</v>
       </c>
       <c r="I32">
-        <v>0.398402282803793</v>
+        <v>0.2489751822685318</v>
       </c>
       <c r="J32">
-        <v>0.4190570403264284</v>
+        <v>0.2620743742913185</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>20.305315</v>
+        <v>15.8682965</v>
       </c>
       <c r="N32">
-        <v>40.61063</v>
+        <v>31.736593</v>
       </c>
       <c r="O32">
-        <v>0.3249597642811566</v>
+        <v>0.2739178250774085</v>
       </c>
       <c r="P32">
-        <v>0.2578249925194772</v>
+        <v>0.2118877785418307</v>
       </c>
       <c r="Q32">
-        <v>1199.648839701333</v>
+        <v>693.472675671398</v>
       </c>
       <c r="R32">
-        <v>7197.893038208001</v>
+        <v>4160.836054028387</v>
       </c>
       <c r="S32">
-        <v>0.1294647119089953</v>
+        <v>0.06819874042524761</v>
       </c>
       <c r="T32">
-        <v>0.1080433782873957</v>
+        <v>0.05553035698132775</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>59.08053333333334</v>
+        <v>43.701772</v>
       </c>
       <c r="H33">
-        <v>177.2416</v>
+        <v>131.105316</v>
       </c>
       <c r="I33">
-        <v>0.398402282803793</v>
+        <v>0.2489751822685318</v>
       </c>
       <c r="J33">
-        <v>0.4190570403264284</v>
+        <v>0.2620743742913185</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>10.766468</v>
       </c>
       <c r="O33">
-        <v>0.0574343696616808</v>
+        <v>0.06195009649850183</v>
       </c>
       <c r="P33">
-        <v>0.06835315117153294</v>
+        <v>0.07188178602730631</v>
       </c>
       <c r="Q33">
-        <v>212.0295571854222</v>
+        <v>156.8379099270987</v>
       </c>
       <c r="R33">
-        <v>1908.2660146688</v>
+        <v>1411.541189343888</v>
       </c>
       <c r="S33">
-        <v>0.02288198398461054</v>
+        <v>0.01542403656726763</v>
       </c>
       <c r="T33">
-        <v>0.02864386922692754</v>
+        <v>0.01883837409604874</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>59.08053333333334</v>
+        <v>43.701772</v>
       </c>
       <c r="H34">
-        <v>177.2416</v>
+        <v>131.105316</v>
       </c>
       <c r="I34">
-        <v>0.398402282803793</v>
+        <v>0.2489751822685318</v>
       </c>
       <c r="J34">
-        <v>0.4190570403264284</v>
+        <v>0.2620743742913185</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.306868</v>
+        <v>7.709476666666666</v>
       </c>
       <c r="N34">
-        <v>24.920604</v>
+        <v>23.12843</v>
       </c>
       <c r="O34">
-        <v>0.1329404575695912</v>
+        <v>0.1330806417070895</v>
       </c>
       <c r="P34">
-        <v>0.1582136140188136</v>
+        <v>0.1544158080818642</v>
       </c>
       <c r="Q34">
-        <v>490.7741917696</v>
+        <v>336.9177915259866</v>
       </c>
       <c r="R34">
-        <v>4416.9677259264</v>
+        <v>3032.260123733879</v>
       </c>
       <c r="S34">
-        <v>0.0529637817727059</v>
+        <v>0.0331337770254358</v>
       </c>
       <c r="T34">
-        <v>0.06630052883007197</v>
+        <v>0.04046842628374287</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>59.08053333333334</v>
+        <v>43.701772</v>
       </c>
       <c r="H35">
-        <v>177.2416</v>
+        <v>131.105316</v>
       </c>
       <c r="I35">
-        <v>0.398402282803793</v>
+        <v>0.2489751822685318</v>
       </c>
       <c r="J35">
-        <v>0.4190570403264284</v>
+        <v>0.2620743742913185</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.6391825</v>
+        <v>8.144102</v>
       </c>
       <c r="N35">
-        <v>19.278365</v>
+        <v>16.288204</v>
       </c>
       <c r="O35">
-        <v>0.1542623925343217</v>
+        <v>0.1405831247890139</v>
       </c>
       <c r="P35">
-        <v>0.1223926915665369</v>
+        <v>0.108747380728491</v>
       </c>
       <c r="Q35">
-        <v>569.4880429973334</v>
+        <v>355.911688748744</v>
       </c>
       <c r="R35">
-        <v>3416.928257984</v>
+        <v>2135.470132492464</v>
       </c>
       <c r="S35">
-        <v>0.06145848933644855</v>
+        <v>0.0350017091182245</v>
       </c>
       <c r="T35">
-        <v>0.05128951908545839</v>
+        <v>0.02849990176023906</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>59.08053333333334</v>
+        <v>43.701772</v>
       </c>
       <c r="H36">
-        <v>177.2416</v>
+        <v>131.105316</v>
       </c>
       <c r="I36">
-        <v>0.398402282803793</v>
+        <v>0.2489751822685318</v>
       </c>
       <c r="J36">
-        <v>0.4190570403264284</v>
+        <v>0.2620743742913185</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>9.935348333333332</v>
+        <v>16.92690533333333</v>
       </c>
       <c r="N36">
-        <v>29.806045</v>
+        <v>50.780716</v>
       </c>
       <c r="O36">
-        <v>0.1590021357684519</v>
+        <v>0.2921914834524206</v>
       </c>
       <c r="P36">
-        <v>0.1892298476817572</v>
+        <v>0.3390349148695199</v>
       </c>
       <c r="Q36">
-        <v>586.9856783857778</v>
+        <v>739.7357575429173</v>
       </c>
       <c r="R36">
-        <v>5282.871105472</v>
+        <v>6657.621817886255</v>
       </c>
       <c r="S36">
-        <v>0.06334681386082985</v>
+        <v>0.07274842784987913</v>
       </c>
       <c r="T36">
-        <v>0.07929809991093806</v>
+        <v>0.08885236317733984</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>59.08053333333334</v>
+        <v>43.701772</v>
       </c>
       <c r="H37">
-        <v>177.2416</v>
+        <v>131.105316</v>
       </c>
       <c r="I37">
-        <v>0.398402282803793</v>
+        <v>0.2489751822685318</v>
       </c>
       <c r="J37">
-        <v>0.4190570403264284</v>
+        <v>0.2620743742913185</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>10.71009166666667</v>
+        <v>5.693261666666667</v>
       </c>
       <c r="N37">
-        <v>32.130275</v>
+        <v>17.079785</v>
       </c>
       <c r="O37">
-        <v>0.1714008801847979</v>
+        <v>0.09827682847556546</v>
       </c>
       <c r="P37">
-        <v>0.203985703041882</v>
+        <v>0.114032331750988</v>
       </c>
       <c r="Q37">
-        <v>632.7579277155555</v>
+        <v>248.8056232930067</v>
       </c>
       <c r="R37">
-        <v>5694.82134944</v>
+        <v>2239.25060963706</v>
       </c>
       <c r="S37">
-        <v>0.06828650194020289</v>
+        <v>0.02446849128247715</v>
       </c>
       <c r="T37">
-        <v>0.08548164498563682</v>
+        <v>0.02988495199262022</v>
       </c>
     </row>
   </sheetData>
